--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.355195333333333</v>
+        <v>11.64940266666667</v>
       </c>
       <c r="H2">
-        <v>28.065586</v>
+        <v>34.948208</v>
       </c>
       <c r="I2">
-        <v>0.4481020953400846</v>
+        <v>0.4844115508208772</v>
       </c>
       <c r="J2">
-        <v>0.4481020953400845</v>
+        <v>0.4844115508208771</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>125.745697022878</v>
+        <v>102.7552725666596</v>
       </c>
       <c r="R2">
-        <v>1131.711273205902</v>
+        <v>924.7974530999361</v>
       </c>
       <c r="S2">
-        <v>0.04020856905671616</v>
+        <v>0.03107571142513483</v>
       </c>
       <c r="T2">
-        <v>0.04020856905671616</v>
+        <v>0.03107571142513482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.355195333333333</v>
+        <v>11.64940266666667</v>
       </c>
       <c r="H3">
-        <v>28.065586</v>
+        <v>34.948208</v>
       </c>
       <c r="I3">
-        <v>0.4481020953400846</v>
+        <v>0.4844115508208772</v>
       </c>
       <c r="J3">
-        <v>0.4481020953400845</v>
+        <v>0.4844115508208771</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>511.8370969115033</v>
+        <v>637.3567017264266</v>
       </c>
       <c r="R3">
-        <v>4606.533872203529</v>
+        <v>5736.21031553784</v>
       </c>
       <c r="S3">
-        <v>0.163665538815304</v>
+        <v>0.1927522787200762</v>
       </c>
       <c r="T3">
-        <v>0.163665538815304</v>
+        <v>0.1927522787200762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.355195333333333</v>
+        <v>11.64940266666667</v>
       </c>
       <c r="H4">
-        <v>28.065586</v>
+        <v>34.948208</v>
       </c>
       <c r="I4">
-        <v>0.4481020953400846</v>
+        <v>0.4844115508208772</v>
       </c>
       <c r="J4">
-        <v>0.4481020953400845</v>
+        <v>0.4844115508208771</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>168.0711234952195</v>
+        <v>255.2170163571022</v>
       </c>
       <c r="R4">
-        <v>1512.640111456976</v>
+        <v>2296.95314721392</v>
       </c>
       <c r="S4">
-        <v>0.05374258949209117</v>
+        <v>0.07718387731347004</v>
       </c>
       <c r="T4">
-        <v>0.05374258949209117</v>
+        <v>0.07718387731347001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.355195333333333</v>
+        <v>11.64940266666667</v>
       </c>
       <c r="H5">
-        <v>28.065586</v>
+        <v>34.948208</v>
       </c>
       <c r="I5">
-        <v>0.4481020953400846</v>
+        <v>0.4844115508208772</v>
       </c>
       <c r="J5">
-        <v>0.4481020953400845</v>
+        <v>0.4844115508208771</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>595.7118023121534</v>
+        <v>606.4313120528907</v>
       </c>
       <c r="R5">
-        <v>5361.406220809381</v>
+        <v>5457.881808476015</v>
       </c>
       <c r="S5">
-        <v>0.1904853979759732</v>
+        <v>0.1833996833621961</v>
       </c>
       <c r="T5">
-        <v>0.1904853979759732</v>
+        <v>0.1833996833621961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>31.271319</v>
       </c>
       <c r="I6">
-        <v>0.4992856221832745</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="J6">
-        <v>0.4992856221832744</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>140.108736887937</v>
+        <v>91.94442551572199</v>
       </c>
       <c r="R6">
-        <v>1260.978631991433</v>
+        <v>827.499829641498</v>
       </c>
       <c r="S6">
-        <v>0.044801308959168</v>
+        <v>0.02780624646412016</v>
       </c>
       <c r="T6">
-        <v>0.044801308959168</v>
+        <v>0.02780624646412015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>31.271319</v>
       </c>
       <c r="I7">
-        <v>0.4992856221832745</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="J7">
-        <v>0.4992856221832744</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>570.3006213215549</v>
@@ -883,10 +883,10 @@
         <v>5132.705591893994</v>
       </c>
       <c r="S7">
-        <v>0.1823598934866442</v>
+        <v>0.1724728774600522</v>
       </c>
       <c r="T7">
-        <v>0.1823598934866442</v>
+        <v>0.1724728774600522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>31.271319</v>
       </c>
       <c r="I8">
-        <v>0.4992856221832745</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="J8">
-        <v>0.4992856221832744</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>187.2686968840559</v>
+        <v>228.36572143359</v>
       </c>
       <c r="R8">
-        <v>1685.418271956504</v>
+        <v>2055.29149290231</v>
       </c>
       <c r="S8">
-        <v>0.05988122463907331</v>
+        <v>0.06906338800336727</v>
       </c>
       <c r="T8">
-        <v>0.05988122463907331</v>
+        <v>0.06906338800336725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>31.271319</v>
       </c>
       <c r="I9">
-        <v>0.4992856221832745</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="J9">
-        <v>0.4992856221832744</v>
+        <v>0.4334467773856777</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>663.75573993603</v>
+        <v>542.6288813090069</v>
       </c>
       <c r="R9">
-        <v>5973.801659424271</v>
+        <v>4883.659931781062</v>
       </c>
       <c r="S9">
-        <v>0.2122431950983889</v>
+        <v>0.1641042654581381</v>
       </c>
       <c r="T9">
-        <v>0.2122431950983889</v>
+        <v>0.1641042654581381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.088525666666667</v>
+        <v>1.677245</v>
       </c>
       <c r="H10">
-        <v>3.265577</v>
+        <v>5.031734999999999</v>
       </c>
       <c r="I10">
-        <v>0.05213901096504407</v>
+        <v>0.06974407828492055</v>
       </c>
       <c r="J10">
-        <v>0.05213901096504406</v>
+        <v>0.06974407828492052</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>14.631166299071</v>
+        <v>14.79438663659667</v>
       </c>
       <c r="R10">
-        <v>131.680496691639</v>
+        <v>133.14947972937</v>
       </c>
       <c r="S10">
-        <v>0.00467847627747819</v>
+        <v>0.004474184908930117</v>
       </c>
       <c r="T10">
-        <v>0.004678476277478188</v>
+        <v>0.004474184908930115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.088525666666667</v>
+        <v>1.677245</v>
       </c>
       <c r="H11">
-        <v>3.265577</v>
+        <v>5.031734999999999</v>
       </c>
       <c r="I11">
-        <v>0.05213901096504407</v>
+        <v>0.06974407828492055</v>
       </c>
       <c r="J11">
-        <v>0.05213901096504406</v>
+        <v>0.06974407828492052</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>59.55491011023165</v>
+        <v>91.76464852107499</v>
       </c>
       <c r="R11">
-        <v>535.9941909920849</v>
+        <v>825.8818366896749</v>
       </c>
       <c r="S11">
-        <v>0.01904333724754096</v>
+        <v>0.02775187749728291</v>
       </c>
       <c r="T11">
-        <v>0.01904333724754095</v>
+        <v>0.02775187749728291</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.088525666666667</v>
+        <v>1.677245</v>
       </c>
       <c r="H12">
-        <v>3.265577</v>
+        <v>5.031734999999999</v>
       </c>
       <c r="I12">
-        <v>0.05213901096504407</v>
+        <v>0.06974407828492055</v>
       </c>
       <c r="J12">
-        <v>0.05213901096504406</v>
+        <v>0.06974407828492052</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>19.5559499541591</v>
+        <v>36.74535741001667</v>
       </c>
       <c r="R12">
-        <v>176.003549587432</v>
+        <v>330.70821669015</v>
       </c>
       <c r="S12">
-        <v>0.006253229993694577</v>
+        <v>0.01111269616210059</v>
       </c>
       <c r="T12">
-        <v>0.006253229993694576</v>
+        <v>0.01111269616210058</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.088525666666667</v>
+        <v>1.677245</v>
       </c>
       <c r="H13">
-        <v>3.265577</v>
+        <v>5.031734999999999</v>
       </c>
       <c r="I13">
-        <v>0.05213901096504407</v>
+        <v>0.06974407828492055</v>
       </c>
       <c r="J13">
-        <v>0.05213901096504406</v>
+        <v>0.06974407828492052</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>69.31416861415666</v>
+        <v>87.31210647345499</v>
       </c>
       <c r="R13">
-        <v>623.82751752741</v>
+        <v>785.8089582610949</v>
       </c>
       <c r="S13">
-        <v>0.02216396744633034</v>
+        <v>0.02640531971660692</v>
       </c>
       <c r="T13">
-        <v>0.02216396744633034</v>
+        <v>0.02640531971660691</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.009880666666666668</v>
+        <v>0.2981443333333333</v>
       </c>
       <c r="H14">
-        <v>0.029642</v>
+        <v>0.894433</v>
       </c>
       <c r="I14">
-        <v>0.0004732715115968286</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="J14">
-        <v>0.0004732715115968285</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>0.132808698566</v>
+        <v>2.629826018765111</v>
       </c>
       <c r="R14">
-        <v>1.195278287094</v>
+        <v>23.668434168886</v>
       </c>
       <c r="S14">
-        <v>4.246704144995158E-05</v>
+        <v>0.000795323805933558</v>
       </c>
       <c r="T14">
-        <v>4.246704144995156E-05</v>
+        <v>0.0007953238059335579</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.009880666666666668</v>
+        <v>0.2981443333333333</v>
       </c>
       <c r="H15">
-        <v>0.029642</v>
+        <v>0.894433</v>
       </c>
       <c r="I15">
-        <v>0.0004732715115968286</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="J15">
-        <v>0.0004732715115968285</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>0.5405864401566667</v>
+        <v>16.31193412821833</v>
       </c>
       <c r="R15">
-        <v>4.86527796141</v>
+        <v>146.807407153965</v>
       </c>
       <c r="S15">
-        <v>0.0001728584573848999</v>
+        <v>0.0049331284428785</v>
       </c>
       <c r="T15">
-        <v>0.0001728584573848999</v>
+        <v>0.0049331284428785</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.009880666666666668</v>
+        <v>0.2981443333333333</v>
       </c>
       <c r="H16">
-        <v>0.029642</v>
+        <v>0.894433</v>
       </c>
       <c r="I16">
-        <v>0.0004732715115968286</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="J16">
-        <v>0.0004732715115968285</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>0.1775114990524444</v>
+        <v>6.531794751574445</v>
       </c>
       <c r="R16">
-        <v>1.597603491472</v>
+        <v>58.78615276417001</v>
       </c>
       <c r="S16">
-        <v>5.676125336291096E-05</v>
+        <v>0.001975374729860797</v>
       </c>
       <c r="T16">
-        <v>5.676125336291095E-05</v>
+        <v>0.001975374729860797</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.009880666666666668</v>
+        <v>0.2981443333333333</v>
       </c>
       <c r="H17">
-        <v>0.029642</v>
+        <v>0.894433</v>
       </c>
       <c r="I17">
-        <v>0.0004732715115968286</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="J17">
-        <v>0.0004732715115968285</v>
+        <v>0.01239759350852466</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>0.6291722982066668</v>
+        <v>15.52045752198233</v>
       </c>
       <c r="R17">
-        <v>5.662550683860001</v>
+        <v>139.684117697841</v>
       </c>
       <c r="S17">
-        <v>0.0002011847593990661</v>
+        <v>0.004693766529851806</v>
       </c>
       <c r="T17">
-        <v>0.0002011847593990661</v>
+        <v>0.004693766529851806</v>
       </c>
     </row>
   </sheetData>
